--- a/src/main/webapp/file/template/TeacherTemplate.xlsx
+++ b/src/main/webapp/file/template/TeacherTemplate.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3244C2F5-C045-4852-A620-81B237B50F20}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F436451D-B6A6-4989-8DF2-2A4D5D0FA3DD}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2445" yWindow="2055" windowWidth="13320" windowHeight="7530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -39,6 +39,10 @@
   </si>
   <si>
     <t>办公室地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教师类型填数字（校内：0 校外：1）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -364,18 +368,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="4" max="4" width="12.5" customWidth="1"/>
+    <col min="6" max="6" width="28.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -390,6 +395,9 @@
       </c>
       <c r="E1" t="s">
         <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
